--- a/mydjango15/mydjango15-data.xlsx
+++ b/mydjango15/mydjango15-data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -153,6 +153,9 @@
     <t>모모제인</t>
   </si>
   <si>
+    <t xml:space="preserve">대전 평생학습관과 대전여중 옆 골목에 위치한 카페 </t>
+  </si>
+  <si>
     <t>대전 중구 대흥로121번길 30-8 1층</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>카페모먼트</t>
   </si>
   <si>
+    <t>반려동물 동반 가능 카페</t>
+  </si>
+  <si>
     <t>대전 중구 보문로230번길 58 1층 카페모먼트</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>카페캠페인</t>
   </si>
   <si>
+    <t>인테리어가 예쁘고 깨끗한 카페</t>
+  </si>
+  <si>
     <t>대전 중구 대흥로169번길 39 2층</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>카페미넷</t>
   </si>
   <si>
+    <t>프랑스 시골의 작은 가정집에 와 있는 듯한 따뜻한 공간</t>
+  </si>
+  <si>
     <t>대전 중구 대흥로121번길 17-1</t>
   </si>
   <si>
@@ -290,6 +302,10 @@
   </si>
   <si>
     <t>낭만집</t>
+  </si>
+  <si>
+    <t>퓨전한식 안주와 뉴트로감성의 인테리어 
+이루어 말할수 없는 맛있는안주들이 있는 낭만집</t>
   </si>
   <si>
     <t>대전 중구 중앙로122번길 45 2층</t>
@@ -751,172 +767,187 @@
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
